--- a/downloads/update_eo_data.xlsx
+++ b/downloads/update_eo_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="update_eo_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>eo_code</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>head</t>
+  </si>
+  <si>
+    <t>eo_class_code</t>
+  </si>
+  <si>
+    <t>E02_02</t>
   </si>
 </sst>
 </file>
@@ -417,22 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,22 +450,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -468,19 +478,22 @@
       <c r="C2">
         <v>1100</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>60</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>45029</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>54161</v>
       </c>
     </row>

--- a/downloads/update_eo_data.xlsx
+++ b/downloads/update_eo_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>eo_code</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>E02_02</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>Komatsu</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,16 +117,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +459,7 @@
     <col min="9" max="9" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +487,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -495,6 +518,9 @@
       </c>
       <c r="I2" s="2">
         <v>54161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/update_eo_data.xlsx
+++ b/downloads/update_eo_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="update_eo_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>eo_code</t>
   </si>
@@ -64,18 +64,29 @@
   </si>
   <si>
     <t>Komatsu</t>
+  </si>
+  <si>
+    <t>expected_operation_period_years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,15 +143,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,11 +467,11 @@
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="8" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,13 +497,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,16 +525,19 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>45029</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
         <v>54161</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
